--- a/data_migration/exports/saleitems.xlsx
+++ b/data_migration/exports/saleitems.xlsx
@@ -441,42 +441,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>company_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>company_worker_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>product_id</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>sale_id</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>created</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>updated</t>
         </is>
       </c>
     </row>
@@ -484,528 +484,528 @@
       <c r="A2" t="n">
         <v>21</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-09-18 14:49:37.113975</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2022-09-18 14:49:37.113975</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>62</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2022-09-18 14:49:37.113975-04:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2022-09-18 14:49:37.113975-04:00</t>
-        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>22</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-09-18 14:54:37.287790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2022-09-18 14:54:37.287790</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>63</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2022-09-18 14:54:37.287790-04:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2022-09-18 14:54:37.287790-04:00</t>
-        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>23</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2022-09-18 14:55:04.651876</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2022-09-18 14:55:04.651876</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
+        <v>61</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" t="n">
         <v>41</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>64</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2022-09-18 14:55:04.651876-04:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2022-09-18 14:55:04.651876-04:00</t>
-        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>24</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2022-09-18 14:56:50.750685</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2022-09-18 14:56:50.750685</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
+        <v>61</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
         <v>14</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>65</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2022-09-18 14:56:50.750685-04:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2022-09-18 14:56:50.750685-04:00</t>
-        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>25</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2022-09-18 14:58:54.435026</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2022-09-18 14:58:54.435026</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
+        <v>61</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="n">
         <v>14</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>66</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2022-09-18 14:58:54.435026-04:00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2022-09-18 14:58:54.435026-04:00</t>
-        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>26</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2022-09-18 15:00:06.151327</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2022-09-18 15:00:06.151327</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
+        <v>61</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="n">
         <v>14</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>67</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2022-09-18 15:00:06.151327-04:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2022-09-18 15:00:06.151327-04:00</t>
-        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2022-09-18 15:26:35.485997</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2022-09-18 15:26:35.485997</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
+        <v>61</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" t="n">
         <v>15</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>68</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2022-09-18 15:26:35.485997-04:00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2022-09-18 15:26:35.485997-04:00</t>
-        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>28</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2022-09-18 15:27:35.689287</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2022-09-18 15:27:35.689287</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
+        <v>61</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
         <v>15</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>69</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2022-09-18 15:27:35.689287-04:00</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2022-09-18 15:27:35.689287-04:00</t>
-        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>29</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2022-09-18 15:37:09.879506</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2022-09-18 15:37:09.879506</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
         <v>70</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2022-09-18 15:37:09.879506-04:00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2022-09-18 15:37:09.879506-04:00</t>
-        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>30</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2022-09-18 15:37:45.659542</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2022-09-18 15:37:45.659542</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>71</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2022-09-18 15:37:45.659542-04:00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2022-09-18 15:37:45.659542-04:00</t>
-        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31</v>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2022-09-18 15:40:06.029508</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2022-09-18 15:40:06.029508</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>73</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2022-09-18 15:40:06.029508-04:00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2022-09-18 15:40:06.029508-04:00</t>
-        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32</v>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2022-09-18 15:54:31.185543</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2022-09-18 15:54:31.185543</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
+        <v>61</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>74</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2022-09-18 15:54:31.185543-04:00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2022-09-18 15:54:31.185543-04:00</t>
-        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33</v>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2022-09-18 16:06:28.793962</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2022-09-18 16:06:28.793962</t>
+        </is>
       </c>
       <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
         <v>62</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>28</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>75</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2022-09-18 16:06:28.793962-04:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2022-09-18 16:06:28.793962-04:00</t>
-        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>34</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2022-09-23 12:14:00.916381</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2022-09-23 12:14:00.916381</t>
+        </is>
       </c>
       <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
         <v>62</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>22</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>0.5</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>76</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2022-09-23 12:14:00.916381-04:00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2022-09-23 12:14:00.916381-04:00</t>
-        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2022-09-27 12:55:43.040103</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2022-09-27 12:55:43.040103</t>
+        </is>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
         <v>62</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>22</v>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>77</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2022-09-27 12:55:43.040103-04:00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2022-09-27 12:55:43.040103-04:00</t>
-        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36</v>
       </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2022-09-28 12:45:59.610472</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2022-09-28 12:45:59.610472</t>
+        </is>
       </c>
       <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
         <v>62</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>22</v>
       </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
         <v>78</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2022-09-28 12:45:59.610472-04:00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2022-09-28 12:45:59.610472-04:00</t>
-        </is>
       </c>
     </row>
   </sheetData>
